--- a/WB UNHCR FCDO Measurement Data/soccoh_measurement_wbunhcr.xlsx
+++ b/WB UNHCR FCDO Measurement Data/soccoh_measurement_wbunhcr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristenmccollum/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BF598FB-FD59-6744-8F89-398B8492E1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C22C349-8B9B-5149-8725-59C8C6CFBC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="500" windowWidth="28520" windowHeight="17500" xr2:uid="{12DCFFB1-934A-844E-9B9C-772AD7886A3B}"/>
+    <workbookView xWindow="1680" yWindow="500" windowWidth="28520" windowHeight="17500" xr2:uid="{12DCFFB1-934A-844E-9B9C-772AD7886A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptive Data" sheetId="1" r:id="rId1"/>
@@ -1690,7 +1690,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1760,6 +1760,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1863,7 +1869,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2040,6 +2046,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3483,10 +3490,10 @@
   <dimension ref="A1:AZ120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3826,9 +3833,7 @@
       <c r="N4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="14">
-        <v>101</v>
-      </c>
+      <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="19"/>
@@ -3847,9 +3852,7 @@
       <c r="AC4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="14">
-        <v>601</v>
-      </c>
+      <c r="AD4" s="14"/>
       <c r="AE4" s="14"/>
       <c r="AF4" s="14"/>
       <c r="AG4" s="14"/>
@@ -3859,9 +3862,7 @@
       <c r="AI4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AJ4" s="14">
-        <v>801</v>
-      </c>
+      <c r="AJ4" s="14"/>
       <c r="AK4" s="14"/>
       <c r="AL4" s="14"/>
       <c r="AM4" s="14"/>
@@ -3900,9 +3901,7 @@
       <c r="N5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="14">
-        <v>102</v>
-      </c>
+      <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="19"/>
@@ -3921,9 +3920,7 @@
       <c r="AC5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AD5" s="14">
-        <v>602</v>
-      </c>
+      <c r="AD5" s="14"/>
       <c r="AE5" s="14"/>
       <c r="AF5" s="14"/>
       <c r="AG5" s="14"/>
@@ -3933,9 +3930,7 @@
       <c r="AI5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AJ5" s="14">
-        <v>802</v>
-      </c>
+      <c r="AJ5" s="14"/>
       <c r="AK5" s="14"/>
       <c r="AL5" s="14"/>
       <c r="AM5" s="14"/>
@@ -3974,9 +3969,7 @@
       <c r="N6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="14">
-        <v>103</v>
-      </c>
+      <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="19"/>
@@ -3995,9 +3988,7 @@
       <c r="AC6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AD6" s="14">
-        <v>603</v>
-      </c>
+      <c r="AD6" s="14"/>
       <c r="AE6" s="14"/>
       <c r="AF6" s="14"/>
       <c r="AG6" s="14"/>
@@ -4007,9 +3998,7 @@
       <c r="AI6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AJ6" s="14">
-        <v>803</v>
-      </c>
+      <c r="AJ6" s="14"/>
       <c r="AK6" s="14"/>
       <c r="AL6" s="14"/>
       <c r="AM6" s="14"/>
@@ -4048,9 +4037,7 @@
       <c r="N7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="14">
-        <v>104</v>
-      </c>
+      <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="19"/>
@@ -4075,9 +4062,7 @@
       <c r="AI7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AJ7" s="14">
-        <v>804</v>
-      </c>
+      <c r="AJ7" s="14"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="14"/>
       <c r="AM7" s="14"/>
@@ -4116,9 +4101,7 @@
       <c r="N8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="14">
-        <v>105</v>
-      </c>
+      <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="19"/>
@@ -4143,9 +4126,7 @@
       <c r="AI8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AJ8" s="14">
-        <v>805</v>
-      </c>
+      <c r="AJ8" s="14"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="14"/>
       <c r="AM8" s="14"/>
@@ -16373,7 +16354,7 @@
   <dimension ref="A1:BF31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="BE4" activeCellId="5" sqref="BE27 BE23 BE12 BE11 BE7 BE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17228,7 +17209,7 @@
         <f>IF('Dataset - Count'!AP4&gt;=1, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" s="62">
         <f t="shared" ref="BE4:BE27" si="14">I4+N4+U4+AB4+AL4+AT4+BA4</f>
         <v>1</v>
       </c>
@@ -17915,7 +17896,7 @@
         <f>IF('Dataset - Count'!AP7&gt;=1, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" s="62">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -18831,7 +18812,7 @@
         <f>IF('Dataset - Count'!AP11&gt;=1, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="BE11">
+      <c r="BE11" s="62">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -19060,7 +19041,7 @@
         <f>IF('Dataset - Count'!AP12&gt;=1, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="BE12">
+      <c r="BE12" s="62">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -21567,7 +21548,7 @@
         <f>IF('Dataset - Count'!AP23&gt;=1, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="BE23">
+      <c r="BE23" s="62">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -22473,7 +22454,7 @@
         <f>IF('Dataset - Count'!AP27&gt;=1, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="BE27">
+      <c r="BE27" s="62">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -22658,8 +22639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3092E89C-A8BB-B842-AB09-3F6BAF06701C}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
